--- a/target/test-classes/data/tests.xlsx
+++ b/target/test-classes/data/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\IdeaProjects\SeleniumPractice\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC0797-21CA-4B42-A64B-3B522945BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F705D4-3D54-44E7-B517-E928A4A8F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
